--- a/src/main/config/Carga_Radios.xlsx
+++ b/src/main/config/Carga_Radios.xlsx
@@ -4,90 +4,199 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21030" windowHeight="2775" autoFilterDateGrouping="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="Radios" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Radios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Radios!$A$2:$AW$2</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>ZONAID</t>
-  </si>
-  <si>
-    <t>LATITUD</t>
-  </si>
-  <si>
-    <t>LONGITUD</t>
-  </si>
-  <si>
-    <t>INFORMACION DEMOGRAFICA</t>
-  </si>
-  <si>
-    <t>POBLACION TOTAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+  <si>
+    <t>Propuesta</t>
+  </si>
+  <si>
+    <t>Radio (m)</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
   </si>
   <si>
     <t>PEA</t>
   </si>
   <si>
-    <t>VIVIENDAS</t>
-  </si>
-  <si>
-    <t>NSE</t>
-  </si>
-  <si>
-    <t>GENERADORES</t>
-  </si>
-  <si>
-    <t>MERCADOS</t>
-  </si>
-  <si>
-    <t>ESCUELAS</t>
-  </si>
-  <si>
-    <t>HOSPITALES</t>
-  </si>
-  <si>
-    <t>TEMPLOS</t>
-  </si>
-  <si>
-    <t>CALLE PRINCIPAL</t>
-  </si>
-  <si>
-    <t>ENTRE CALLE 1</t>
-  </si>
-  <si>
-    <t>ENTRE CALLE 2</t>
-  </si>
-  <si>
-    <t>UBICACIÓN PREFERENCIAL</t>
-  </si>
-  <si>
-    <t>ESTRATEGIA</t>
-  </si>
-  <si>
-    <t>SITIO</t>
-  </si>
-  <si>
-    <t>RADIO</t>
-  </si>
-  <si>
-    <t>CEDIS</t>
-  </si>
-  <si>
-    <t>DISTANCIA</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TIEMPO</t>
+    <t>Población Flotante</t>
+  </si>
+  <si>
+    <t>Hogares</t>
+  </si>
+  <si>
+    <t>Ocupaciones</t>
+  </si>
+  <si>
+    <t>Más de 60 años</t>
+  </si>
+  <si>
+    <t>Competencia</t>
+  </si>
+  <si>
+    <t>Generadores</t>
+  </si>
+  <si>
+    <t>Unidades económicas</t>
+  </si>
+  <si>
+    <t>Sitio</t>
+  </si>
+  <si>
+    <t>Anillo</t>
+  </si>
+  <si>
+    <t>Población (Total)</t>
+  </si>
+  <si>
+    <t>PEA (Ocupaciones)</t>
+  </si>
+  <si>
+    <t>Total Hogares</t>
+  </si>
+  <si>
+    <t>BAE</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>Oficinas de Gobierno</t>
+  </si>
+  <si>
+    <t>Escuelas</t>
+  </si>
+  <si>
+    <t>Mercados</t>
+  </si>
+  <si>
+    <t>Hospitales</t>
+  </si>
+  <si>
+    <t>Generadores total</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Edades</t>
+  </si>
+  <si>
+    <t>Menos de 26</t>
+  </si>
+  <si>
+    <t>De 26 a 30</t>
+  </si>
+  <si>
+    <t>De 31 a 40</t>
+  </si>
+  <si>
+    <t>De 41 a 50</t>
+  </si>
+  <si>
+    <t>De 51 a 60</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Calle Principal</t>
+  </si>
+  <si>
+    <t>Entre Calle 1</t>
+  </si>
+  <si>
+    <t>Entre Calle 2</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>AMA DE CASA</t>
+  </si>
+  <si>
+    <t>DESEMPLEADO</t>
+  </si>
+  <si>
+    <t>EJIDATARIO</t>
+  </si>
+  <si>
+    <t>EMPLEADO</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>JORNALERO</t>
+  </si>
+  <si>
+    <t>JUBILADO</t>
+  </si>
+  <si>
+    <t>OBRERO</t>
+  </si>
+  <si>
+    <t>EMPRESARIO</t>
+  </si>
+  <si>
+    <t>PROFESIONISTA</t>
+  </si>
+  <si>
+    <t>SERVIDOR PUBLICO</t>
+  </si>
+  <si>
+    <t>TRABAJA POR SU CUENTA</t>
+  </si>
+  <si>
+    <t>OTRA OCUPACIÓN</t>
+  </si>
+  <si>
+    <t>Venta y preparación de alimentos</t>
+  </si>
+  <si>
+    <t>Venta de artículos personales y del hogar</t>
+  </si>
+  <si>
+    <t>Total UE</t>
+  </si>
+  <si>
+    <t>Templos</t>
+  </si>
+  <si>
+    <t>MIBA</t>
+  </si>
+  <si>
+    <t>Total de competencia</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -96,25 +205,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,11 +235,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,107 +255,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -525,207 +603,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AX15" sqref="AX15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="24" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+    </row>
+    <row r="2" spans="1:49" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="8" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="10"/>
-    </row>
-    <row r="2" spans="1:21" ht="15">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="3"/>
+      <c r="AV2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="R1:U1"/>
+  <mergeCells count="6">
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="Q1:AC1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>